--- a/products.xlsx
+++ b/products.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="85">
   <si>
     <t>part_no</t>
   </si>
@@ -23,6 +23,252 @@
   </si>
   <si>
     <t>customer</t>
+  </si>
+  <si>
+    <t>10335922</t>
+  </si>
+  <si>
+    <t>10335928</t>
+  </si>
+  <si>
+    <t>KTE11291762</t>
+  </si>
+  <si>
+    <t>KTE11263092</t>
+  </si>
+  <si>
+    <t>KTE11263132</t>
+  </si>
+  <si>
+    <t>KTE11282753</t>
+  </si>
+  <si>
+    <t>KTE11236252</t>
+  </si>
+  <si>
+    <t>KTE11291182</t>
+  </si>
+  <si>
+    <t>KW755212302</t>
+  </si>
+  <si>
+    <t>KW755210352</t>
+  </si>
+  <si>
+    <t>KW755208182</t>
+  </si>
+  <si>
+    <t>KW755206142</t>
+  </si>
+  <si>
+    <t>B00185</t>
+  </si>
+  <si>
+    <t>B00183</t>
+  </si>
+  <si>
+    <t>B00184</t>
+  </si>
+  <si>
+    <t>B00186</t>
+  </si>
+  <si>
+    <t>B00200</t>
+  </si>
+  <si>
+    <t>B00201</t>
+  </si>
+  <si>
+    <t>B00193</t>
+  </si>
+  <si>
+    <t>B00252</t>
+  </si>
+  <si>
+    <t>B00262</t>
+  </si>
+  <si>
+    <t>B00259</t>
+  </si>
+  <si>
+    <t>759067A</t>
+  </si>
+  <si>
+    <t>204418A</t>
+  </si>
+  <si>
+    <t>722793A</t>
+  </si>
+  <si>
+    <t>STRAIGHT PIN</t>
+  </si>
+  <si>
+    <t>PIN STEERING KNUCKLE</t>
+  </si>
+  <si>
+    <t>DOWEL MASTER CLUTCH HSG</t>
+  </si>
+  <si>
+    <t>NUT PARKING BRAKE ROD</t>
+  </si>
+  <si>
+    <t>SCREW M14X1.5 PARKING BRAKE</t>
+  </si>
+  <si>
+    <t>KNOB PARKING BRAKE LEVER</t>
+  </si>
+  <si>
+    <t>U BOLT MUFFER CLAMP</t>
+  </si>
+  <si>
+    <t>GRUB SCREW PLUG FOR MASTER CLUTCH HSG</t>
+  </si>
+  <si>
+    <t>ADJUSTING SCREW LIMIT STOP</t>
+  </si>
+  <si>
+    <t>SCREWED PLUG</t>
+  </si>
+  <si>
+    <t>PIN BIG</t>
+  </si>
+  <si>
+    <t>PIN SMALL</t>
+  </si>
+  <si>
+    <t>PIN FOR PAWL</t>
+  </si>
+  <si>
+    <t>CLOSING SCREW</t>
+  </si>
+  <si>
+    <t>SPECIAL SCREW</t>
+  </si>
+  <si>
+    <t>ADJUSTING SCREW (M10X1)</t>
+  </si>
+  <si>
+    <t>SLIDING PIECE</t>
+  </si>
+  <si>
+    <t>BANJO BOLT M10X1.5</t>
+  </si>
+  <si>
+    <t>STUD M10X53</t>
+  </si>
+  <si>
+    <t>STUD M8X44</t>
+  </si>
+  <si>
+    <t>SPECIAL STUD M8X44</t>
+  </si>
+  <si>
+    <t>STUD M8X36</t>
+  </si>
+  <si>
+    <t>STUD M8X28</t>
+  </si>
+  <si>
+    <t>STUD M8X32</t>
+  </si>
+  <si>
+    <t>MACHINED WASHER Ø17.0</t>
+  </si>
+  <si>
+    <t>MACHINED WASHER Ø12.5</t>
+  </si>
+  <si>
+    <t>SPHERICAL WASHER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIN PLANET GEAR KNURLED </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIN PLANETARY  GEAR </t>
+  </si>
+  <si>
+    <t>CHAIN ANCHOR</t>
+  </si>
+  <si>
+    <t>SHAFT AUXILIARY</t>
+  </si>
+  <si>
+    <t>CHART PIN CHAIN ANCHOR</t>
+  </si>
+  <si>
+    <t>PIN (TOP LINK, R)</t>
+  </si>
+  <si>
+    <t>JOINT, STR PIPE</t>
+  </si>
+  <si>
+    <t>BOLT JOINT</t>
+  </si>
+  <si>
+    <t>BOLT, JOINT</t>
+  </si>
+  <si>
+    <t>PIN (CHECK CHAIN)</t>
+  </si>
+  <si>
+    <t>PIN JOINT</t>
+  </si>
+  <si>
+    <t>PIVOT BOLT</t>
+  </si>
+  <si>
+    <t>BOLT PLATES</t>
+  </si>
+  <si>
+    <t>TILT BOLT</t>
+  </si>
+  <si>
+    <t>BOLT</t>
+  </si>
+  <si>
+    <t>PLUG</t>
+  </si>
+  <si>
+    <t>ADJUSTING NUT</t>
+  </si>
+  <si>
+    <t>DOWEL PIN</t>
+  </si>
+  <si>
+    <t>GRUB SCREW</t>
+  </si>
+  <si>
+    <t>SPACER</t>
+  </si>
+  <si>
+    <t>PIN</t>
+  </si>
+  <si>
+    <t>THRUST SPACER</t>
+  </si>
+  <si>
+    <t>COUPLE PIN</t>
+  </si>
+  <si>
+    <t>CNH</t>
+  </si>
+  <si>
+    <t>TMTL'B</t>
+  </si>
+  <si>
+    <t>TMTL'A</t>
+  </si>
+  <si>
+    <t>EEC</t>
+  </si>
+  <si>
+    <t>EKIL</t>
+  </si>
+  <si>
+    <t>RANE NSK</t>
+  </si>
+  <si>
+    <t>PTL</t>
   </si>
 </sst>
 </file>
@@ -380,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,6 +643,809 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>82822563</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>82823038</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>82822976</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>82822977</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>590921</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>82834846</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>82833794</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>5121523</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>5121522</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>1384594</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>1517790</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>1515329</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>1619597</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>1619585</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>1041009</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>1935021</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>1040984</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>1012642</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>1384764</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>1659819</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>1714016</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>93131506</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>1972352</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>1361934</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>1970379</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>1163085</v>
+      </c>
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>1162846</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>1382123</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>1248236</v>
+      </c>
+      <c r="B32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>38995</v>
+      </c>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>68904</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>38907</v>
+      </c>
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>67602</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>1369356</v>
+      </c>
+      <c r="B37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>1333329</v>
+      </c>
+      <c r="B38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>1369357</v>
+      </c>
+      <c r="B39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>1365140</v>
+      </c>
+      <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>4072704</v>
+      </c>
+      <c r="B41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>4072717</v>
+      </c>
+      <c r="B42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>4115999</v>
+      </c>
+      <c r="B43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>135306</v>
+      </c>
+      <c r="B44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>783304</v>
+      </c>
+      <c r="B65" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>83144</v>
+      </c>
+      <c r="B69" t="s">
+        <v>74</v>
+      </c>
+      <c r="C69" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>790947</v>
+      </c>
+      <c r="B70" t="s">
+        <v>75</v>
+      </c>
+      <c r="C70" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>714034</v>
+      </c>
+      <c r="B71" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>714048</v>
+      </c>
+      <c r="B72" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>207001</v>
+      </c>
+      <c r="B73" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>280017</v>
+      </c>
+      <c r="B74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/products.xlsx
+++ b/products.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="85">
   <si>
     <t>part_no</t>
   </si>
@@ -139,115 +139,115 @@
     <t>PIN FOR PAWL</t>
   </si>
   <si>
+    <t>SPECIAL SCREW</t>
+  </si>
+  <si>
+    <t>ADJUSTING SCREW (M10X1)</t>
+  </si>
+  <si>
+    <t>SLIDING PIECE</t>
+  </si>
+  <si>
+    <t>BANJO BOLT M10X1.5</t>
+  </si>
+  <si>
+    <t>STUD M10X53</t>
+  </si>
+  <si>
+    <t>STUD M8X44</t>
+  </si>
+  <si>
+    <t>SPECIAL STUD M8X44</t>
+  </si>
+  <si>
+    <t>STUD M8X36</t>
+  </si>
+  <si>
+    <t>STUD M8X28</t>
+  </si>
+  <si>
+    <t>STUD M8X32</t>
+  </si>
+  <si>
+    <t>MACHINED WASHER Ø17.0</t>
+  </si>
+  <si>
+    <t>MACHINED WASHER Ø12.5</t>
+  </si>
+  <si>
+    <t>SPHERICAL WASHER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIN PLANET GEAR KNURLED </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIN PLANETARY  GEAR </t>
+  </si>
+  <si>
+    <t>CHAIN ANCHOR</t>
+  </si>
+  <si>
+    <t>SHAFT AUXILIARY</t>
+  </si>
+  <si>
+    <t>CHART PIN CHAIN ANCHOR</t>
+  </si>
+  <si>
+    <t>PIN (TOP LINK, R)</t>
+  </si>
+  <si>
+    <t>JOINT, STR PIPE</t>
+  </si>
+  <si>
+    <t>BOLT JOINT</t>
+  </si>
+  <si>
+    <t>BOLT, JOINT</t>
+  </si>
+  <si>
+    <t>PIN (CHECK CHAIN)</t>
+  </si>
+  <si>
+    <t>PIN JOINT</t>
+  </si>
+  <si>
+    <t>PIVOT BOLT</t>
+  </si>
+  <si>
+    <t>BOLT PLATES</t>
+  </si>
+  <si>
+    <t>TILT BOLT</t>
+  </si>
+  <si>
+    <t>BOLT</t>
+  </si>
+  <si>
+    <t>PLUG</t>
+  </si>
+  <si>
+    <t>ADJUSTING NUT</t>
+  </si>
+  <si>
+    <t>DOWEL PIN</t>
+  </si>
+  <si>
+    <t>GRUB SCREW</t>
+  </si>
+  <si>
+    <t>SPACER</t>
+  </si>
+  <si>
+    <t>PIN</t>
+  </si>
+  <si>
+    <t>THRUST SPACER</t>
+  </si>
+  <si>
+    <t>COUPLE PIN</t>
+  </si>
+  <si>
     <t>CLOSING SCREW</t>
-  </si>
-  <si>
-    <t>SPECIAL SCREW</t>
-  </si>
-  <si>
-    <t>ADJUSTING SCREW (M10X1)</t>
-  </si>
-  <si>
-    <t>SLIDING PIECE</t>
-  </si>
-  <si>
-    <t>BANJO BOLT M10X1.5</t>
-  </si>
-  <si>
-    <t>STUD M10X53</t>
-  </si>
-  <si>
-    <t>STUD M8X44</t>
-  </si>
-  <si>
-    <t>SPECIAL STUD M8X44</t>
-  </si>
-  <si>
-    <t>STUD M8X36</t>
-  </si>
-  <si>
-    <t>STUD M8X28</t>
-  </si>
-  <si>
-    <t>STUD M8X32</t>
-  </si>
-  <si>
-    <t>MACHINED WASHER Ø17.0</t>
-  </si>
-  <si>
-    <t>MACHINED WASHER Ø12.5</t>
-  </si>
-  <si>
-    <t>SPHERICAL WASHER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIN PLANET GEAR KNURLED </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIN PLANETARY  GEAR </t>
-  </si>
-  <si>
-    <t>CHAIN ANCHOR</t>
-  </si>
-  <si>
-    <t>SHAFT AUXILIARY</t>
-  </si>
-  <si>
-    <t>CHART PIN CHAIN ANCHOR</t>
-  </si>
-  <si>
-    <t>PIN (TOP LINK, R)</t>
-  </si>
-  <si>
-    <t>JOINT, STR PIPE</t>
-  </si>
-  <si>
-    <t>BOLT JOINT</t>
-  </si>
-  <si>
-    <t>BOLT, JOINT</t>
-  </si>
-  <si>
-    <t>PIN (CHECK CHAIN)</t>
-  </si>
-  <si>
-    <t>PIN JOINT</t>
-  </si>
-  <si>
-    <t>PIVOT BOLT</t>
-  </si>
-  <si>
-    <t>BOLT PLATES</t>
-  </si>
-  <si>
-    <t>TILT BOLT</t>
-  </si>
-  <si>
-    <t>BOLT</t>
-  </si>
-  <si>
-    <t>PLUG</t>
-  </si>
-  <si>
-    <t>ADJUSTING NUT</t>
-  </si>
-  <si>
-    <t>DOWEL PIN</t>
-  </si>
-  <si>
-    <t>GRUB SCREW</t>
-  </si>
-  <si>
-    <t>SPACER</t>
-  </si>
-  <si>
-    <t>PIN</t>
-  </si>
-  <si>
-    <t>THRUST SPACER</t>
-  </si>
-  <si>
-    <t>COUPLE PIN</t>
   </si>
   <si>
     <t>CNH</t>
@@ -626,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -821,7 +821,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>1041009</v>
+        <v>1935021</v>
       </c>
       <c r="B18" t="s">
         <v>41</v>
@@ -832,7 +832,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>1935021</v>
+        <v>1040984</v>
       </c>
       <c r="B19" t="s">
         <v>42</v>
@@ -843,7 +843,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>1040984</v>
+        <v>1012642</v>
       </c>
       <c r="B20" t="s">
         <v>43</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>1012642</v>
+        <v>1384764</v>
       </c>
       <c r="B21" t="s">
         <v>44</v>
@@ -865,18 +865,18 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>1384764</v>
+        <v>1659819</v>
       </c>
       <c r="B22" t="s">
         <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>1659819</v>
+        <v>1714016</v>
       </c>
       <c r="B23" t="s">
         <v>46</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>1714016</v>
+        <v>93131506</v>
       </c>
       <c r="B24" t="s">
         <v>47</v>
@@ -898,7 +898,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>93131506</v>
+        <v>1972352</v>
       </c>
       <c r="B25" t="s">
         <v>48</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>1972352</v>
+        <v>1361934</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
@@ -920,7 +920,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>1361934</v>
+        <v>1970379</v>
       </c>
       <c r="B27" t="s">
         <v>50</v>
@@ -931,7 +931,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>1970379</v>
+        <v>1163085</v>
       </c>
       <c r="B28" t="s">
         <v>51</v>
@@ -942,7 +942,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>1163085</v>
+        <v>1162846</v>
       </c>
       <c r="B29" t="s">
         <v>52</v>
@@ -953,10 +953,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>1162846</v>
+        <v>1382123</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
         <v>80</v>
@@ -964,7 +964,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>1382123</v>
+        <v>1248236</v>
       </c>
       <c r="B31" t="s">
         <v>53</v>
@@ -975,18 +975,18 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>1248236</v>
+        <v>38995</v>
       </c>
       <c r="B32" t="s">
         <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>38995</v>
+        <v>68904</v>
       </c>
       <c r="B33" t="s">
         <v>55</v>
@@ -997,10 +997,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>68904</v>
+        <v>38907</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C34" t="s">
         <v>81</v>
@@ -1008,10 +1008,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>38907</v>
+        <v>67602</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C35" t="s">
         <v>81</v>
@@ -1019,10 +1019,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>67602</v>
+        <v>1369356</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C36" t="s">
         <v>81</v>
@@ -1030,10 +1030,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>1369356</v>
+        <v>1333329</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C37" t="s">
         <v>81</v>
@@ -1041,10 +1041,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>1333329</v>
+        <v>1369357</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
         <v>81</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>1369357</v>
+        <v>1365140</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
         <v>81</v>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>1365140</v>
+        <v>4072704</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C40" t="s">
         <v>81</v>
@@ -1074,10 +1074,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>4072704</v>
+        <v>4072717</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C41" t="s">
         <v>81</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>4072717</v>
+        <v>4115999</v>
       </c>
       <c r="B42" t="s">
         <v>57</v>
@@ -1096,7 +1096,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>4115999</v>
+        <v>135306</v>
       </c>
       <c r="B43" t="s">
         <v>58</v>
@@ -1106,19 +1106,19 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44">
-        <v>135306</v>
+      <c r="A44" t="s">
+        <v>5</v>
       </c>
       <c r="B44" t="s">
         <v>59</v>
       </c>
       <c r="C44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B45" t="s">
         <v>60</v>
@@ -1129,10 +1129,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C46" t="s">
         <v>82</v>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
         <v>61</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B48" t="s">
         <v>62</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B49" t="s">
         <v>63</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B50" t="s">
         <v>64</v>
@@ -1184,10 +1184,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C51" t="s">
         <v>82</v>
@@ -1195,10 +1195,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C52" t="s">
         <v>82</v>
@@ -1206,10 +1206,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C53" t="s">
         <v>82</v>
@@ -1217,18 +1217,18 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B54" t="s">
         <v>65</v>
       </c>
       <c r="C54" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B55" t="s">
         <v>66</v>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B56" t="s">
         <v>67</v>
@@ -1250,10 +1250,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C57" t="s">
         <v>83</v>
@@ -1261,10 +1261,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C58" t="s">
         <v>83</v>
@@ -1272,10 +1272,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C59" t="s">
         <v>83</v>
@@ -1283,10 +1283,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C60" t="s">
         <v>83</v>
@@ -1294,7 +1294,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B61" t="s">
         <v>68</v>
@@ -1305,10 +1305,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C62" t="s">
         <v>83</v>
@@ -1316,29 +1316,29 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C63" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>24</v>
+      <c r="A64">
+        <v>783304</v>
       </c>
       <c r="B64" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C64" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65">
-        <v>783304</v>
+      <c r="A65" t="s">
+        <v>25</v>
       </c>
       <c r="B65" t="s">
         <v>70</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B66" t="s">
         <v>71</v>
@@ -1360,7 +1360,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B67" t="s">
         <v>72</v>
@@ -1370,8 +1370,8 @@
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>27</v>
+      <c r="A68">
+        <v>83144</v>
       </c>
       <c r="B68" t="s">
         <v>73</v>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>83144</v>
+        <v>790947</v>
       </c>
       <c r="B69" t="s">
         <v>74</v>
@@ -1393,10 +1393,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>790947</v>
+        <v>714034</v>
       </c>
       <c r="B70" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C70" t="s">
         <v>84</v>
@@ -1404,10 +1404,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>714034</v>
+        <v>714048</v>
       </c>
       <c r="B71" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C71" t="s">
         <v>84</v>
@@ -1415,10 +1415,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>714048</v>
+        <v>207001</v>
       </c>
       <c r="B72" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C72" t="s">
         <v>84</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>207001</v>
+        <v>280017</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C73" t="s">
         <v>84</v>
@@ -1437,12 +1437,793 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
+        <v>10335920</v>
+      </c>
+      <c r="B74" t="s">
+        <v>28</v>
+      </c>
+      <c r="C74" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>82822563</v>
+      </c>
+      <c r="B75" t="s">
+        <v>29</v>
+      </c>
+      <c r="C75" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>82823038</v>
+      </c>
+      <c r="B76" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>82822976</v>
+      </c>
+      <c r="B77" t="s">
+        <v>31</v>
+      </c>
+      <c r="C77" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>82822977</v>
+      </c>
+      <c r="B78" t="s">
+        <v>32</v>
+      </c>
+      <c r="C78" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>590921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>33</v>
+      </c>
+      <c r="C79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>82834846</v>
+      </c>
+      <c r="B80" t="s">
+        <v>34</v>
+      </c>
+      <c r="C80" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>82833794</v>
+      </c>
+      <c r="B81" t="s">
+        <v>35</v>
+      </c>
+      <c r="C81" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>5121523</v>
+      </c>
+      <c r="B82" t="s">
+        <v>36</v>
+      </c>
+      <c r="C82" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>5121522</v>
+      </c>
+      <c r="B83" t="s">
+        <v>36</v>
+      </c>
+      <c r="C83" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>1384594</v>
+      </c>
+      <c r="B84" t="s">
+        <v>37</v>
+      </c>
+      <c r="C84" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>1517790</v>
+      </c>
+      <c r="B85" t="s">
+        <v>38</v>
+      </c>
+      <c r="C85" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>1515329</v>
+      </c>
+      <c r="B86" t="s">
+        <v>39</v>
+      </c>
+      <c r="C86" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>1619597</v>
+      </c>
+      <c r="B87" t="s">
+        <v>40</v>
+      </c>
+      <c r="C87" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>1619585</v>
+      </c>
+      <c r="B88" t="s">
+        <v>40</v>
+      </c>
+      <c r="C88" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>1041009</v>
+      </c>
+      <c r="B89" t="s">
+        <v>77</v>
+      </c>
+      <c r="C89" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>1935021</v>
+      </c>
+      <c r="B90" t="s">
+        <v>41</v>
+      </c>
+      <c r="C90" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>1040984</v>
+      </c>
+      <c r="B91" t="s">
+        <v>42</v>
+      </c>
+      <c r="C91" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>1012642</v>
+      </c>
+      <c r="B92" t="s">
+        <v>43</v>
+      </c>
+      <c r="C92" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>1384764</v>
+      </c>
+      <c r="B93" t="s">
+        <v>44</v>
+      </c>
+      <c r="C93" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>1659819</v>
+      </c>
+      <c r="B94" t="s">
+        <v>45</v>
+      </c>
+      <c r="C94" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>1714016</v>
+      </c>
+      <c r="B95" t="s">
+        <v>46</v>
+      </c>
+      <c r="C95" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>93131506</v>
+      </c>
+      <c r="B96" t="s">
+        <v>47</v>
+      </c>
+      <c r="C96" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>1972352</v>
+      </c>
+      <c r="B97" t="s">
+        <v>48</v>
+      </c>
+      <c r="C97" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>1361934</v>
+      </c>
+      <c r="B98" t="s">
+        <v>49</v>
+      </c>
+      <c r="C98" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>1970379</v>
+      </c>
+      <c r="B99" t="s">
+        <v>50</v>
+      </c>
+      <c r="C99" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>1163085</v>
+      </c>
+      <c r="B100" t="s">
+        <v>51</v>
+      </c>
+      <c r="C100" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>1162846</v>
+      </c>
+      <c r="B101" t="s">
+        <v>52</v>
+      </c>
+      <c r="C101" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>1382123</v>
+      </c>
+      <c r="B102" t="s">
+        <v>52</v>
+      </c>
+      <c r="C102" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>1248236</v>
+      </c>
+      <c r="B103" t="s">
+        <v>53</v>
+      </c>
+      <c r="C103" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>38995</v>
+      </c>
+      <c r="B104" t="s">
+        <v>54</v>
+      </c>
+      <c r="C104" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>68904</v>
+      </c>
+      <c r="B105" t="s">
+        <v>55</v>
+      </c>
+      <c r="C105" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>38907</v>
+      </c>
+      <c r="B106" t="s">
+        <v>54</v>
+      </c>
+      <c r="C106" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>67602</v>
+      </c>
+      <c r="B107" t="s">
+        <v>54</v>
+      </c>
+      <c r="C107" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>1369356</v>
+      </c>
+      <c r="B108" t="s">
+        <v>56</v>
+      </c>
+      <c r="C108" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>1333329</v>
+      </c>
+      <c r="B109" t="s">
+        <v>56</v>
+      </c>
+      <c r="C109" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <v>1369357</v>
+      </c>
+      <c r="B110" t="s">
+        <v>56</v>
+      </c>
+      <c r="C110" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>1365140</v>
+      </c>
+      <c r="B111" t="s">
+        <v>56</v>
+      </c>
+      <c r="C111" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>4072704</v>
+      </c>
+      <c r="B112" t="s">
+        <v>56</v>
+      </c>
+      <c r="C112" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>4072717</v>
+      </c>
+      <c r="B113" t="s">
+        <v>56</v>
+      </c>
+      <c r="C113" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <v>4115999</v>
+      </c>
+      <c r="B114" t="s">
+        <v>57</v>
+      </c>
+      <c r="C114" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>135306</v>
+      </c>
+      <c r="B115" t="s">
+        <v>58</v>
+      </c>
+      <c r="C115" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" t="s">
+        <v>59</v>
+      </c>
+      <c r="C116" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>6</v>
+      </c>
+      <c r="B117" t="s">
+        <v>60</v>
+      </c>
+      <c r="C117" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118" t="s">
+        <v>60</v>
+      </c>
+      <c r="C118" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" t="s">
+        <v>61</v>
+      </c>
+      <c r="C119" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120" t="s">
+        <v>62</v>
+      </c>
+      <c r="C120" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>10</v>
+      </c>
+      <c r="B121" t="s">
+        <v>63</v>
+      </c>
+      <c r="C121" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>11</v>
+      </c>
+      <c r="B122" t="s">
+        <v>64</v>
+      </c>
+      <c r="C122" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>12</v>
+      </c>
+      <c r="B123" t="s">
+        <v>64</v>
+      </c>
+      <c r="C123" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>13</v>
+      </c>
+      <c r="B124" t="s">
+        <v>64</v>
+      </c>
+      <c r="C124" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>14</v>
+      </c>
+      <c r="B125" t="s">
+        <v>64</v>
+      </c>
+      <c r="C125" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>15</v>
+      </c>
+      <c r="B126" t="s">
+        <v>65</v>
+      </c>
+      <c r="C126" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>16</v>
+      </c>
+      <c r="B127" t="s">
+        <v>66</v>
+      </c>
+      <c r="C127" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>17</v>
+      </c>
+      <c r="B128" t="s">
+        <v>67</v>
+      </c>
+      <c r="C128" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>18</v>
+      </c>
+      <c r="B129" t="s">
+        <v>67</v>
+      </c>
+      <c r="C129" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>19</v>
+      </c>
+      <c r="B130" t="s">
+        <v>67</v>
+      </c>
+      <c r="C130" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>20</v>
+      </c>
+      <c r="B131" t="s">
+        <v>67</v>
+      </c>
+      <c r="C131" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>21</v>
+      </c>
+      <c r="B132" t="s">
+        <v>67</v>
+      </c>
+      <c r="C132" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>22</v>
+      </c>
+      <c r="B133" t="s">
+        <v>68</v>
+      </c>
+      <c r="C133" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>23</v>
+      </c>
+      <c r="B134" t="s">
+        <v>67</v>
+      </c>
+      <c r="C134" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>24</v>
+      </c>
+      <c r="B135" t="s">
+        <v>67</v>
+      </c>
+      <c r="C135" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136">
+        <v>783304</v>
+      </c>
+      <c r="B136" t="s">
+        <v>69</v>
+      </c>
+      <c r="C136" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>25</v>
+      </c>
+      <c r="B137" t="s">
+        <v>70</v>
+      </c>
+      <c r="C137" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>26</v>
+      </c>
+      <c r="B138" t="s">
+        <v>71</v>
+      </c>
+      <c r="C138" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>27</v>
+      </c>
+      <c r="B139" t="s">
+        <v>72</v>
+      </c>
+      <c r="C139" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140">
+        <v>83144</v>
+      </c>
+      <c r="B140" t="s">
+        <v>73</v>
+      </c>
+      <c r="C140" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141">
+        <v>790947</v>
+      </c>
+      <c r="B141" t="s">
+        <v>74</v>
+      </c>
+      <c r="C141" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142">
+        <v>714034</v>
+      </c>
+      <c r="B142" t="s">
+        <v>73</v>
+      </c>
+      <c r="C142" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143">
+        <v>714048</v>
+      </c>
+      <c r="B143" t="s">
+        <v>75</v>
+      </c>
+      <c r="C143" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144">
+        <v>207001</v>
+      </c>
+      <c r="B144" t="s">
+        <v>74</v>
+      </c>
+      <c r="C144" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145">
         <v>280017</v>
       </c>
-      <c r="B74" t="s">
-        <v>77</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="B145" t="s">
+        <v>76</v>
+      </c>
+      <c r="C145" t="s">
         <v>84</v>
       </c>
     </row>
